--- a/biology/Zoologie/Erythemis_simplicicollis/Erythemis_simplicicollis.xlsx
+++ b/biology/Zoologie/Erythemis_simplicicollis/Erythemis_simplicicollis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Érythème des étangs (Erythemis simplicicollis) est un insecte odonate de la famille des Libellulidae. En Amérique du Nord, on la retrouve à partir du centre des États-Unis jusqu'à l'est. Au Canada, elle est présente dans le sud des provinces de l'Ontario et du Québec[1]. L'espèce est également mentionnée en Amérique centrale (Mexique, Cuba, Haïti et Jamaïque)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Érythème des étangs (Erythemis simplicicollis) est un insecte odonate de la famille des Libellulidae. En Amérique du Nord, on la retrouve à partir du centre des États-Unis jusqu'à l'est. Au Canada, elle est présente dans le sud des provinces de l'Ontario et du Québec. L'espèce est également mentionnée en Amérique centrale (Mexique, Cuba, Haïti et Jamaïque).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythemis simplicicollis mesure entre 38 et 44 mm de long. Le mâle mature a une coloration pruine bleutée et ses pièces copulatrices accessoires à la base de l'abdomen sont blanches. La femelle est de couleur verte et son abdomen présente une alternance de bandes noires et vertes. Les immatures des deux sexes sont semblables à la femelle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythemis simplicicollis mesure entre 38 et 44 mm de long. Le mâle mature a une coloration pruine bleutée et ses pièces copulatrices accessoires à la base de l'abdomen sont blanches. La femelle est de couleur verte et son abdomen présente une alternance de bandes noires et vertes. Les immatures des deux sexes sont semblables à la femelle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Érythème des étangs se retrouve dans les étangs, marécages, marais, lacs et rivières[4]. La femelle peut s'observer dans les milieux ouverts à proximité du lieu de reproduction.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Érythème des étangs se retrouve dans les étangs, marécages, marais, lacs et rivières. La femelle peut s'observer dans les milieux ouverts à proximité du lieu de reproduction.
 </t>
         </is>
       </c>
